--- a/ExcelPractice.xlsx
+++ b/ExcelPractice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmettartar/IdeaProjects/cucumber-junit00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB3EEF3-4854-4B4C-9D9C-76C7B6FBEF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F1B592-48C2-0649-BB32-F09D2635B873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15620" activeTab="1" xr2:uid="{2BC95CBC-8DA3-114D-8787-BA2751519ADF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>firstname</t>
   </si>
@@ -141,12 +141,6 @@
     <t>salesmanager101</t>
   </si>
   <si>
-    <t>Liza</t>
-  </si>
-  <si>
-    <t>Fritsch</t>
-  </si>
-  <si>
     <t>salesmanager102</t>
   </si>
   <si>
@@ -159,7 +153,10 @@
     <t>Result</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -613,7 +610,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -655,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -672,7 +669,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -689,7 +686,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -706,7 +703,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -717,30 +714,30 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
